--- a/ДЗ.xlsx
+++ b/ДЗ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>ФИ</t>
   </si>
@@ -117,6 +117,21 @@
   <si>
     <t>Женский пол</t>
   </si>
+  <si>
+    <t>16 лет</t>
+  </si>
+  <si>
+    <t>15 лет</t>
+  </si>
+  <si>
+    <t>17 лет</t>
+  </si>
+  <si>
+    <t>2009 год</t>
+  </si>
+  <si>
+    <t>2008 год</t>
+  </si>
 </sst>
 </file>
 
@@ -139,12 +154,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +219,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -192,10 +261,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -206,13 +275,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -246,13 +321,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -269,8 +350,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1948627546882277E-2"/>
-          <c:y val="0.22291229221347331"/>
+          <c:x val="8.4674541100659875E-2"/>
+          <c:y val="0.22964892543186147"/>
           <c:w val="0.61826626468597068"/>
           <c:h val="0.71609689413823274"/>
         </c:manualLayout>
@@ -284,66 +365,109 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="76000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BDB4-40FC-B1FE-C341AA0D36C7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="77000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="77000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="77000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BDB4-40FC-B1FE-C341AA0D36C7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -352,9 +476,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -376,9 +502,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -447,25 +573,20 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64190680343238593"/>
-          <c:y val="0.13362124980573062"/>
-          <c:w val="0.31188856169701262"/>
-          <c:h val="0.22735641438967069"/>
+          <c:x val="0.50005129805918691"/>
+          <c:y val="7.121264922936725E-2"/>
+          <c:w val="0.46194338877161883"/>
+          <c:h val="0.25514343046005628"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -478,9 +599,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -500,30 +620,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -552,15 +667,46 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Возраст</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37177777777777782"/>
+          <c:y val="6.4814814814814811E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -574,11 +720,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -597,10 +742,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36687739937907887"/>
-          <c:y val="0.11122668597358602"/>
-          <c:w val="0.58818577355259272"/>
-          <c:h val="0.81400888675566008"/>
+          <c:x val="0.1373485959160467"/>
+          <c:y val="0.20847527315070327"/>
+          <c:w val="0.82935411269168746"/>
+          <c:h val="0.6611320280402414"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -610,347 +755,104 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Возраст</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$25</c:f>
+              <c:f>Лист1!$H$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Боброва Виктория</c:v>
+                  <c:v>15 лет</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Башаев Микаил</c:v>
+                  <c:v>16 лет</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Борисов Роман</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Васильева Анна</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Глушков Тимур</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Закарян Нарек</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Карнаухов Богдан</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Коротков Максим</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Кочергин Павел</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Кошкин Алексей</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Крапивина Екатерина</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Кузьмин Дмитрий</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Максимова Евгения</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Мельников Антон</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Орехова Дарья</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Пуртова Анна</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Роженцова Валерия</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Рубцов Артемий</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Ручкин Даниил</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Сергеева Валерия</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Смыслова Ангелина</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Токтаева Полина</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Фицай Карина</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Шалахова Екатерина</c:v>
+                  <c:v>17 лет</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$25</c:f>
+              <c:f>Лист1!$H$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18FC-44C3-BA60-3DC53F0BDA1B}"/>
+              <c16:uniqueId val="{00000000-D479-467B-B288-0430AFCDDCC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="267257040"/>
-        <c:axId val="267254744"/>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="308774680"/>
+        <c:axId val="308773040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267257040"/>
+        <c:axId val="308774680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="267254744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="267254744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:gradFill>
                 <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
+                <a:lin ang="10800000" scaled="0"/>
               </a:gradFill>
               <a:round/>
             </a:ln>
@@ -975,9 +877,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -988,7 +889,76 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267257040"/>
+        <c:crossAx val="308773040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="308773040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308774680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,30 +975,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1060,22 +1017,51 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30503354604175376"/>
-          <c:y val="2.7053141743125519E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Год</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> рождения</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,13 +1075,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1107,7 +1099,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1873456995056349E-2"/>
+          <c:y val="0.19482289955185444"/>
+          <c:w val="0.86596364997253528"/>
+          <c:h val="0.6124039644655751"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1115,280 +1117,157 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Год рождения</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$25</c:f>
+              <c:f>Лист1!$K$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Боброва Виктория</c:v>
+                  <c:v>2009 год</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Башаев Микаил</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Борисов Роман</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Васильева Анна</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Глушков Тимур</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Закарян Нарек</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Карнаухов Богдан</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Коротков Максим</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Кочергин Павел</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Кошкин Алексей</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Крапивина Екатерина</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Кузьмин Дмитрий</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Максимова Евгения</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Мельников Антон</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Орехова Дарья</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Пуртова Анна</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Роженцова Валерия</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Рубцов Артемий</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Ручкин Даниил</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Сергеева Валерия</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Смыслова Ангелина</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Токтаева Полина</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Фицай Карина</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Шалахова Екатерина</c:v>
+                  <c:v>2008 год</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$25</c:f>
+              <c:f>Лист1!$K$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2009</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1331-4289-A1DA-CF62EDB06777}"/>
+              <c16:uniqueId val="{00000000-F872-46E2-AB3E-4F3AA55AF702}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="349676048"/>
-        <c:axId val="349676376"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="310059176"/>
+        <c:axId val="311080392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349676048"/>
+        <c:axId val="310059176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311080392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311080392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1402,14 +1281,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1418,11 +1291,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1433,25 +1305,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349676376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="349676376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349676048"/>
+        <c:crossAx val="310059176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,19 +1322,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1503,9 +1366,18 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1539,54 +1411,80 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
-  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -1599,180 +1497,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1780,10 +1611,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1799,17 +1630,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1821,20 +1651,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1845,14 +1675,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1864,14 +1694,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1883,7 +1712,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1891,28 +1720,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1922,28 +1739,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1952,14 +1757,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1971,14 +1776,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1989,19 +1794,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -2009,7 +1805,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -2017,7 +1813,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2025,17 +1821,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2048,14 +1843,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2067,12 +1862,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2081,7 +1883,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -2096,9 +1898,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2108,7 +1909,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2116,9 +1917,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2129,16 +1930,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2146,22 +1941,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -2171,23 +1965,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -2197,30 +1979,17 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2233,592 +2002,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="65000"/>
           <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
         </a:schemeClr>
       </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2826,41 +2032,73 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
@@ -2869,8 +2107,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -2880,23 +2125,30 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2920,17 +2172,520 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2942,7 +2697,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2953,9 +2708,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2966,16 +2721,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2984,14 +2740,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3003,7 +2758,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3011,14 +2766,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3030,14 +2785,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3048,16 +2803,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3066,14 +2822,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3084,27 +2840,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3112,17 +2867,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3135,14 +2889,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3154,12 +2908,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3168,14 +2929,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3184,19 +2944,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3204,9 +2963,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3217,22 +2976,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3240,7 +2987,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3251,15 +2998,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333379</xdr:colOff>
+      <xdr:colOff>353790</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>46945</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>408218</xdr:colOff>
+      <xdr:colOff>428629</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3280,20 +3027,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135390</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3310,20 +3057,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510267</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176895</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>129267</xdr:rowOff>
+      <xdr:rowOff>88448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3604,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3622,7 +3369,7 @@
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3635,14 +3382,29 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -3655,16 +3417,36 @@
       <c r="D2" s="1">
         <v>2009</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <f>COUNTIF(B:B,"Мужской")</f>
         <v>12</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <f>COUNTIF(B:B,"Женский")</f>
         <v>12</v>
       </c>
+      <c r="H2" s="4">
+        <f>COUNTIF(C:C,"15")</f>
+        <v>14</v>
+      </c>
+      <c r="I2" s="4">
+        <f>COUNTIF(C:C,"16")</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="4">
+        <f>COUNTIF(C:C,"17")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <f>COUNTIF(D:D,"2009")</f>
+        <v>19</v>
+      </c>
+      <c r="L2" s="9">
+        <f>COUNTIF(D:D,"2008")</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3678,7 +3460,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3692,7 +3474,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3488,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3502,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3728,13 +3510,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3748,7 +3530,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3762,7 +3544,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3776,7 +3558,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3790,7 +3572,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3804,7 +3586,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +3600,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3832,7 +3614,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3846,7 +3628,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
